--- a/Acetone/Ave_SOOT_Mass_FRAC.xlsx
+++ b/Acetone/Ave_SOOT_Mass_FRAC.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Acetone_Pool_Fire_GCMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Acetone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFC3A4E-B1C3-45A8-9EBB-4B7E267860B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FEE245A-041C-49D9-AB45-2857B95BB223}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9300" xr2:uid="{49277310-CCAA-49A8-AF44-FB7828FA9573}"/>
+    <workbookView xWindow="1875" yWindow="4095" windowWidth="18900" windowHeight="11055" xr2:uid="{49A7DB46-6D4F-418F-A1DB-6112AB941B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Mass_Frac_Soot" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,15 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Position (cm) </t>
+    <t>Var1</t>
   </si>
   <si>
-    <t>Ave_Soot_Mass_Fraction</t>
+    <t>Var2</t>
   </si>
   <si>
-    <t>Uncertainty</t>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>Position_cm</t>
+  </si>
+  <si>
+    <t>ave_Y_Soot</t>
+  </si>
+  <si>
+    <t>u_ave_Y_Soot</t>
   </si>
 </sst>
 </file>
@@ -391,18 +402,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998DF445-6D37-45CC-AC7C-122A48D0D086}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F6C38A-0F33-46D3-AC08-EAD05F7224B1}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -424,7 +432,7 @@
         <v>3.6528022450646957E-4</v>
       </c>
       <c r="C2">
-        <v>1.1356675201688222E-5</v>
+        <v>1.4821872093528022E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -435,7 +443,7 @@
         <v>6.3937065295494521E-4</v>
       </c>
       <c r="C3">
-        <v>2.8795335262219152E-5</v>
+        <v>2.8962459490505354E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -446,7 +454,7 @@
         <v>1.0403569827979284E-3</v>
       </c>
       <c r="C4">
-        <v>3.0570974138569059E-5</v>
+        <v>7.9435861828233061E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -457,7 +465,7 @@
         <v>1.3347755453614568E-3</v>
       </c>
       <c r="C5">
-        <v>3.3638048287195008E-5</v>
+        <v>6.8587613385216614E-5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,7 +476,7 @@
         <v>1.3957587341662063E-3</v>
       </c>
       <c r="C6">
-        <v>4.0660399564680435E-5</v>
+        <v>5.3561238416670722E-5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,7 +487,7 @@
         <v>1.1402221192398716E-3</v>
       </c>
       <c r="C7">
-        <v>2.6110100147538644E-5</v>
+        <v>4.0016422727251008E-5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -489,6 +497,9 @@
       <c r="B8">
         <v>9.4558349928821435E-4</v>
       </c>
+      <c r="C8">
+        <v>4.1300003580276173E-5</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -498,7 +509,7 @@
         <v>3.745553362714471E-4</v>
       </c>
       <c r="C9">
-        <v>2.2784245015552739E-5</v>
+        <v>5.5592372236095103E-5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,7 +520,7 @@
         <v>1.1743408933365021E-4</v>
       </c>
       <c r="C10">
-        <v>2.305843053542822E-5</v>
+        <v>4.3615910695519825E-5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9AA43E-0C47-4518-99EE-C8EC4A6B8755}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B057B0-30C1-4C5A-A3B9-F82586ABE07E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -541,7 +552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6F9111-A7A1-4243-A36E-D185B743E867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E025D31-9B1B-4C6A-82AB-982986058182}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -550,4 +561,143 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E24A29-A332-4F02-B390-D077790C3EB0}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3.6528022450646957E-4</v>
+      </c>
+      <c r="C2">
+        <v>1.4821872093528022E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6.3937065295494521E-4</v>
+      </c>
+      <c r="C3">
+        <v>2.8962459490505354E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1.0403569827979284E-3</v>
+      </c>
+      <c r="C4">
+        <v>7.9435861828233061E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1.3347755453614568E-3</v>
+      </c>
+      <c r="C5">
+        <v>6.8587613385216614E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1.3957587341662063E-3</v>
+      </c>
+      <c r="C6">
+        <v>5.3561238416670722E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1.1402221192398716E-3</v>
+      </c>
+      <c r="C7">
+        <v>4.0016422727251008E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>9.4558349928821435E-4</v>
+      </c>
+      <c r="C8">
+        <v>4.1300003580276173E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>3.745553362714471E-4</v>
+      </c>
+      <c r="C9">
+        <v>5.5592372236095103E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>1.1743408933365021E-4</v>
+      </c>
+      <c r="C10">
+        <v>4.3615910695519825E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>1.2500387622552602E-5</v>
+      </c>
+      <c r="C11">
+        <v>1.3312392218280024E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Acetone/Ave_SOOT_Mass_FRAC.xlsx
+++ b/Acetone/Ave_SOOT_Mass_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Acetone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FEE245A-041C-49D9-AB45-2857B95BB223}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A013C89-51E3-4F1D-A589-4BCE62444CC1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="4095" windowWidth="18900" windowHeight="11055" xr2:uid="{49A7DB46-6D4F-418F-A1DB-6112AB941B4B}"/>
+    <workbookView xWindow="25200" yWindow="-13050" windowWidth="16200" windowHeight="11055" xr2:uid="{49A7DB46-6D4F-418F-A1DB-6112AB941B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
